--- a/【北京】-赵灿进度表.xlsx
+++ b/【北京】-赵灿进度表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -65,7 +65,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>完成注册页面</t>
+    <t>合并、检查项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答辩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查页面是否有错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -73,15 +81,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>合并、检查项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答辩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查页面是否有错误</t>
+    <t>完成注册页面并实现请求后台数据验证用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差注册按钮的验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不熟练，获取数据比较费劲，要一点一点试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +473,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -476,7 +484,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -514,19 +522,23 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -538,7 +550,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -550,7 +562,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -562,7 +574,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>

--- a/【北京】-赵灿进度表.xlsx
+++ b/【北京】-赵灿进度表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实现请求后台数据验证用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成注册页面并实现请求后台数据验证用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,6 +86,14 @@
   </si>
   <si>
     <t>不熟练，获取数据比较费劲，要一点一点试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成商品详情的静态页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +477,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -484,7 +488,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -522,15 +526,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -538,9 +542,11 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>

--- a/【北京】-赵灿进度表.xlsx
+++ b/【北京】-赵灿进度表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -65,35 +65,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>答辩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成注册页面并实现请求后台数据验证用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差注册按钮的验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不熟练，获取数据比较费劲，要一点一点试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成商品详情的静态页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现登录页面用户名与密码的登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在首页保存用户名与头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功实现了用注册的用户名去登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>合并、检查项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答辩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查页面是否有错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成注册页面并实现请求后台数据验证用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>差注册按钮的验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不熟练，获取数据比较费劲，要一点一点试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成商品详情的静态页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -174,6 +186,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,7 +495,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -488,7 +506,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -526,15 +544,17 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.75</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -545,22 +565,32 @@
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -568,7 +598,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -580,7 +610,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
